--- a/pinallocation.xlsx
+++ b/pinallocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://okanagan365-my.sharepoint.com/personal/eddy_kneller_myokanagan_bc_ca/Documents/winter 2022/elen 227/227 project/EnviroMon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3CABBB7-9C26-4724-8779-251AB03C5A22}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88932B84-9AA7-4260-9A23-3FBC50383328}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="473" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,304 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>pin name</t>
-  </si>
-  <si>
-    <t>pin number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>SDA1/RP9/PMD3/RCV/CN21/RB9</t>
+  </si>
+  <si>
+    <t>RP22/PMA1/CN18/RC6</t>
+  </si>
+  <si>
+    <t>RP23/PMA0/CN17/RC7</t>
+  </si>
+  <si>
+    <t>RP24/PMA5/CN20/RC8</t>
+  </si>
+  <si>
+    <t>RP25/PMA6/CN19/RC9</t>
+  </si>
+  <si>
+    <t>DISVREG</t>
+  </si>
+  <si>
+    <t>VCAP/VDDCORE</t>
+  </si>
+  <si>
+    <t>PGED2/D+/VPIO/RP10/CN16/RB10</t>
+  </si>
+  <si>
+    <t>PGEC2/D-/VMIO/RP11/CN15/RB11</t>
+  </si>
+  <si>
+    <t>VUSB</t>
+  </si>
+  <si>
+    <t>AN11/C1INC/RP13/REFO/PMRD/SESSEND/CN13/RB13</t>
+  </si>
+  <si>
+    <t>TMS/PMA10/RA10</t>
+  </si>
+  <si>
+    <t>TCK/PMA7/RA7</t>
+  </si>
+  <si>
+    <t>AN10/C3INB/CVREF/VCPCON/VBUSON/RP14/CN12/RB14</t>
+  </si>
+  <si>
+    <t>AN9/C3INA/VBUSCHG/RP15/VBUSST/CN11/RB15</t>
+  </si>
+  <si>
+    <t>AVSS</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>MCLR</t>
+  </si>
+  <si>
+    <t>PGED3/AN0/C3INC/VREF+/ASDA1/RP5/PMD7/CTED1/VBUSVLD/VCMPST1/CN2/RA0</t>
+  </si>
+  <si>
+    <t>PGEC3/AN1/C3IND/VREF-/ASCL1/RP6/PMD6/CTED2/SESSVLD/VCMPST2/CN3/RA1</t>
+  </si>
+  <si>
+    <t>PGED1/AN2/C2INB/DPH/RP0/PMD0/CN4/RB0</t>
+  </si>
+  <si>
+    <t>PGEC1/AN3/C2INA/DMH/RP1/PMD1/CN5/RB1</t>
+  </si>
+  <si>
+    <t>AN4/C1INB/DPLN/SDA2/RP2/PMD2/CN6/RB2</t>
+  </si>
+  <si>
+    <t>AN5/C1INA/DMLN/RTCC/SCL2/RP3/PMWR/CN7/RB3</t>
+  </si>
+  <si>
+    <t>AN6/RP16/CN8/RC0</t>
+  </si>
+  <si>
+    <t>AN7/RP17/CN9/RC1</t>
+  </si>
+  <si>
+    <t>AN8/RP18/PMA2/CN10/RC2</t>
+  </si>
+  <si>
+    <t>OSCI/CLKI/C1IND/PMCS1/CN30/RA2</t>
+  </si>
+  <si>
+    <t>OSCO/CLKO/CN29/RA3</t>
+  </si>
+  <si>
+    <t>TDO/PMA8/RA8</t>
+  </si>
+  <si>
+    <t>SOSCI/C2IND/RP4/CN1/RB4</t>
+  </si>
+  <si>
+    <t>SOSCO/SCLKI/T1CK/C2INC/CN0/RA4</t>
+  </si>
+  <si>
+    <t>TDI/PMA9/RA9</t>
+  </si>
+  <si>
+    <t>AN12/RP19/PMBE/CN28/RC3</t>
+  </si>
+  <si>
+    <t>RP20/PMA4/CN25/RC4</t>
+  </si>
+  <si>
+    <t>RP21/PMA3/CN26/RC5</t>
+  </si>
+  <si>
+    <t>CN27/USBID/RB5</t>
+  </si>
+  <si>
+    <t>VBUS</t>
+  </si>
+  <si>
+    <t>RP7/PMD5/INT0/CN23/RB7</t>
+  </si>
+  <si>
+    <t>USBOEN/SCL1/RP8/PMD4/CN22/RB8</t>
+  </si>
+  <si>
+    <t>schematic group</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>break out?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>interrupts</t>
+  </si>
+  <si>
+    <t>vss</t>
+  </si>
+  <si>
+    <t>vdd</t>
+  </si>
+  <si>
+    <t>icsp</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>RA10</t>
+  </si>
+  <si>
+    <t>RA7</t>
+  </si>
+  <si>
+    <t>RA8</t>
+  </si>
+  <si>
+    <t>RA9</t>
+  </si>
+  <si>
+    <t>RB5</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>AN12/RP19/RC3</t>
+  </si>
+  <si>
+    <t>AN11/RP13/RB13</t>
+  </si>
+  <si>
+    <t>AN10/RP14/RB14</t>
+  </si>
+  <si>
+    <t>AN9/RP15/RB15</t>
+  </si>
+  <si>
+    <t>AN4/RP2/RB2</t>
+  </si>
+  <si>
+    <t>AN6/RP16/RC0</t>
+  </si>
+  <si>
+    <t>AN7/RP17/RC1</t>
+  </si>
+  <si>
+    <t>OSCO/CLKO/RA3</t>
+  </si>
+  <si>
+    <t>AN8/RP18/RC2</t>
+  </si>
+  <si>
+    <t>gpio?</t>
+  </si>
+  <si>
+    <t>VREF+/RP5/RA0</t>
+  </si>
+  <si>
+    <t>VREF-/RP6/RA1</t>
+  </si>
+  <si>
+    <t>PGED1/RP0/RB0</t>
+  </si>
+  <si>
+    <t>PGEC1/RP1/RB1</t>
+  </si>
+  <si>
+    <t>INT0/RP7/RB7</t>
+  </si>
+  <si>
+    <t>SCL1/RP8/RB8</t>
+  </si>
+  <si>
+    <t>SDA1/RP9/RB9</t>
+  </si>
+  <si>
+    <t>OSCI/CLKI/RA2</t>
+  </si>
+  <si>
+    <t>RC6/RP22/RC6</t>
+  </si>
+  <si>
+    <t>RC7/RP23/RC7</t>
+  </si>
+  <si>
+    <t>RC8/RP24/RC8</t>
+  </si>
+  <si>
+    <t>RC9/RP25/RC9</t>
+  </si>
+  <si>
+    <t>D+/RP10/RB10</t>
+  </si>
+  <si>
+    <t>D-/RP11/RB11</t>
+  </si>
+  <si>
+    <t>RP20/RC4</t>
+  </si>
+  <si>
+    <t>RP21/RC5</t>
+  </si>
+  <si>
+    <t>osc</t>
+  </si>
+  <si>
+    <t>AN5/RTCC/RP3/RB3</t>
+  </si>
+  <si>
+    <t>SOSCI/RP4/RB4</t>
+  </si>
+  <si>
+    <t>SOSCO/SCKLI/RA4</t>
+  </si>
+  <si>
+    <t>spi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +339,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,13 +416,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,12 +467,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}" name="Table1" displayName="Table1" ref="A1:C45" totalsRowShown="0">
-  <autoFilter ref="A1:C45" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{770D99BA-FAF0-4803-85D9-E16661148034}" name="pin name"/>
-    <tableColumn id="2" xr3:uid="{BE53D948-D6E8-4530-969E-173F99AA91F0}" name="pin number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0">
+  <autoFilter ref="A1:F45" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{770D99BA-FAF0-4803-85D9-E16661148034}" name="selected" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BE53D948-D6E8-4530-969E-173F99AA91F0}" name="#"/>
     <tableColumn id="3" xr3:uid="{09954C72-76C3-4754-B384-4BDAA5F9EC3D}" name="description"/>
+    <tableColumn id="4" xr3:uid="{B5676F62-CECE-411A-8E95-E6269A080405}" name="side" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DF6F6057-9A69-41C4-AE0F-BFF925E47DB3}" name="schematic group"/>
+    <tableColumn id="6" xr3:uid="{214C3054-EDF5-4352-AD47-952521D041FF}" name="break out?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,34 +778,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE2326-A8F2-4902-84D6-3CE878BF568C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pinallocation.xlsx
+++ b/pinallocation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://okanagan365-my.sharepoint.com/personal/eddy_kneller_myokanagan_bc_ca/Documents/winter 2022/elen 227/227 project/EnviroMon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88932B84-9AA7-4260-9A23-3FBC50383328}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2AB8DA-07E8-4A1B-A7A7-82E58AB4BFA1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="473" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="473" activeTab="1" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu" sheetId="1" r:id="rId1"/>
+    <sheet name="power" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
   <si>
     <t>description</t>
   </si>
@@ -288,18 +289,6 @@
     <t>OSCI/CLKI/RA2</t>
   </si>
   <si>
-    <t>RC6/RP22/RC6</t>
-  </si>
-  <si>
-    <t>RC7/RP23/RC7</t>
-  </si>
-  <si>
-    <t>RC8/RP24/RC8</t>
-  </si>
-  <si>
-    <t>RC9/RP25/RC9</t>
-  </si>
-  <si>
     <t>D+/RP10/RB10</t>
   </si>
   <si>
@@ -325,6 +314,84 @@
   </si>
   <si>
     <t>spi</t>
+  </si>
+  <si>
+    <t>RP22/RC6</t>
+  </si>
+  <si>
+    <t>RP23/RC7</t>
+  </si>
+  <si>
+    <t>RP24/RC8</t>
+  </si>
+  <si>
+    <t>RP25/RC9</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>mcu</t>
+  </si>
+  <si>
+    <t>vref</t>
+  </si>
+  <si>
+    <t>lipo charge</t>
+  </si>
+  <si>
+    <t>eeprom</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>supply source</t>
+  </si>
+  <si>
+    <t>lora</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>vbus</t>
+  </si>
+  <si>
+    <t>vbat</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>vin - unsure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vin </t>
+  </si>
+  <si>
+    <t>3.75 - 6</t>
+  </si>
+  <si>
+    <t>req voltage [V]</t>
+  </si>
+  <si>
+    <t>2.2 - 3.6</t>
+  </si>
+  <si>
+    <t>1.8 - 5.5</t>
+  </si>
+  <si>
+    <t>1.8 - 3.7</t>
+  </si>
+  <si>
+    <t>2.25 - 5.5</t>
+  </si>
+  <si>
+    <t>octal buffer</t>
   </si>
 </sst>
 </file>
@@ -476,6 +543,18 @@
     <tableColumn id="4" xr3:uid="{B5676F62-CECE-411A-8E95-E6269A080405}" name="side" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{DF6F6057-9A69-41C4-AE0F-BFF925E47DB3}" name="schematic group"/>
     <tableColumn id="6" xr3:uid="{214C3054-EDF5-4352-AD47-952521D041FF}" name="break out?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74870FA9-4A49-4A36-A4D8-3D96A41E2534}" name="Table2" displayName="Table2" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{74870FA9-4A49-4A36-A4D8-3D96A41E2534}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A5835D5E-37FB-44EE-BCBF-737218FDDEAC}" name="part"/>
+    <tableColumn id="2" xr3:uid="{1E7D460D-BD2C-4D31-B06F-E1EF91B9E70F}" name="req voltage [V]"/>
+    <tableColumn id="3" xr3:uid="{00AD6618-70B5-4EEF-A960-BF98B7D66398}" name="supply source"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE2326-A8F2-4902-84D6-3CE878BF568C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +915,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -848,7 +927,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -856,7 +935,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -868,7 +947,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -876,7 +955,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -888,7 +967,7 @@
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -896,7 +975,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -950,7 +1029,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -970,7 +1049,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1039,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1246,7 +1325,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
@@ -1373,7 +1452,7 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
@@ -1394,7 +1473,7 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
         <v>47</v>
@@ -1423,7 +1502,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1435,7 +1514,7 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
         <v>47</v>
@@ -1444,7 +1523,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1456,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
@@ -1505,7 +1584,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1525,7 +1604,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1665,4 +1744,137 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4989104C-F973-4494-A978-26D36FD0E30E}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/pinallocation.xlsx
+++ b/pinallocation.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://okanagan365-my.sharepoint.com/personal/eddy_kneller_myokanagan_bc_ca/Documents/winter 2022/elen 227/227 project/EnviroMon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2AB8DA-07E8-4A1B-A7A7-82E58AB4BFA1}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD538B3-83A1-46F5-BD08-603667134C1E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="473" activeTab="1" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="473" activeTab="1" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu" sheetId="1" r:id="rId1"/>
     <sheet name="power" sheetId="2" r:id="rId2"/>
+    <sheet name="leds" sheetId="3" r:id="rId3"/>
+    <sheet name="headers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
   <si>
     <t>description</t>
   </si>
@@ -175,12 +177,6 @@
     <t>selected</t>
   </si>
   <si>
-    <t>break out?</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>side</t>
   </si>
   <si>
@@ -268,9 +264,6 @@
     <t>VREF+/RP5/RA0</t>
   </si>
   <si>
-    <t>VREF-/RP6/RA1</t>
-  </si>
-  <si>
     <t>PGED1/RP0/RB0</t>
   </si>
   <si>
@@ -343,18 +336,9 @@
     <t>eeprom</t>
   </si>
   <si>
-    <t>reg1</t>
-  </si>
-  <si>
-    <t>reg2</t>
-  </si>
-  <si>
     <t>supply source</t>
   </si>
   <si>
-    <t>lora</t>
-  </si>
-  <si>
     <t>sources</t>
   </si>
   <si>
@@ -367,15 +351,9 @@
     <t>vin</t>
   </si>
   <si>
-    <t>vin - unsure</t>
-  </si>
-  <si>
     <t xml:space="preserve">vin </t>
   </si>
   <si>
-    <t>3.75 - 6</t>
-  </si>
-  <si>
     <t>req voltage [V]</t>
   </si>
   <si>
@@ -392,13 +370,184 @@
   </si>
   <si>
     <t>octal buffer</t>
+  </si>
+  <si>
+    <t>RP6/RA1</t>
+  </si>
+  <si>
+    <t>reg2 (debug)</t>
+  </si>
+  <si>
+    <t>reg1 (primary)</t>
+  </si>
+  <si>
+    <t>reg3 (rfm95)</t>
+  </si>
+  <si>
+    <t>rfm95</t>
+  </si>
+  <si>
+    <t>put on enable pin - used for debug</t>
+  </si>
+  <si>
+    <t>put on enable pin - used for rfm95</t>
+  </si>
+  <si>
+    <t>separate reg for debug</t>
+  </si>
+  <si>
+    <t>separate reg for noise isolation for rfm95</t>
+  </si>
+  <si>
+    <t>2.0 - 6.0</t>
+  </si>
+  <si>
+    <t>1.5 - 5.5</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>i2c clock</t>
+  </si>
+  <si>
+    <t>spi clock</t>
+  </si>
+  <si>
+    <t>reg1 out</t>
+  </si>
+  <si>
+    <t>reg3 out</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+  </si>
+  <si>
+    <t>charging</t>
+  </si>
+  <si>
+    <t>usb connection</t>
+  </si>
+  <si>
+    <t>debug enable</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>rtcc</t>
+  </si>
+  <si>
+    <t>vdbg</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>rfm95 extra (5)</t>
+  </si>
+  <si>
+    <t>mem clock</t>
+  </si>
+  <si>
+    <t>int0</t>
+  </si>
+  <si>
+    <t>int1</t>
+  </si>
+  <si>
+    <t>fuse between vbatin and vbat</t>
+  </si>
+  <si>
+    <t>rtc</t>
+  </si>
+  <si>
+    <t>&lt; 6 basically</t>
+  </si>
+  <si>
+    <t>1.8 - 5.5 vcc</t>
+  </si>
+  <si>
+    <t>1.3 - 5.5 vbat</t>
+  </si>
+  <si>
+    <t>vreg</t>
+  </si>
+  <si>
+    <t>vcell</t>
+  </si>
+  <si>
+    <t>button cell battery (prob cr2032)</t>
+  </si>
+  <si>
+    <t>chg power</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>chg complete</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>scl</t>
+  </si>
+  <si>
+    <t>sclk</t>
+  </si>
+  <si>
+    <t>mosi</t>
+  </si>
+  <si>
+    <t>miso</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>dio1</t>
+  </si>
+  <si>
+    <t>dio2</t>
+  </si>
+  <si>
+    <t>dio3</t>
+  </si>
+  <si>
+    <t>dio4</t>
+  </si>
+  <si>
+    <t>dio5</t>
+  </si>
+  <si>
+    <t>busses ()</t>
+  </si>
+  <si>
+    <t>10 pin</t>
+  </si>
+  <si>
+    <t>vrf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +605,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,8 +626,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -479,11 +641,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -509,6 +684,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,15 +717,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0">
-  <autoFilter ref="A1:F45" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+  <autoFilter ref="A1:E45" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{770D99BA-FAF0-4803-85D9-E16661148034}" name="selected" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BE53D948-D6E8-4530-969E-173F99AA91F0}" name="#"/>
     <tableColumn id="3" xr3:uid="{09954C72-76C3-4754-B384-4BDAA5F9EC3D}" name="description"/>
     <tableColumn id="4" xr3:uid="{B5676F62-CECE-411A-8E95-E6269A080405}" name="side" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{DF6F6057-9A69-41C4-AE0F-BFF925E47DB3}" name="schematic group"/>
-    <tableColumn id="6" xr3:uid="{214C3054-EDF5-4352-AD47-952521D041FF}" name="break out?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,6 +737,31 @@
     <tableColumn id="1" xr3:uid="{A5835D5E-37FB-44EE-BCBF-737218FDDEAC}" name="part"/>
     <tableColumn id="2" xr3:uid="{1E7D460D-BD2C-4D31-B06F-E1EF91B9E70F}" name="req voltage [V]"/>
     <tableColumn id="3" xr3:uid="{00AD6618-70B5-4EEF-A960-BF98B7D66398}" name="supply source"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C22C2153-7A57-4573-8FB6-76F88A4F3418}" name="Table3" displayName="Table3" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{C22C2153-7A57-4573-8FB6-76F88A4F3418}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{151EF459-7C07-4C3E-8E76-499BE9424F05}" name="name"/>
+    <tableColumn id="3" xr3:uid="{E65F1D1C-3441-4B57-8562-668631462F41}" name="source"/>
+    <tableColumn id="4" xr3:uid="{AB4A4E33-0276-4000-9EDF-14A5B08B3FE2}" name="color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59A2789-9061-4F93-B9AE-D0B831CC074E}" name="Table4" displayName="Table4" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{C59A2789-9061-4F93-B9AE-D0B831CC074E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BA853930-CAA1-4C3C-B8E5-9FE94DEA2241}" name="rfm95 extra (5)"/>
+    <tableColumn id="2" xr3:uid="{348DD3D3-92AF-4B96-AA07-ABE8D4A07CEF}" name="busses ()"/>
+    <tableColumn id="3" xr3:uid="{5EA94DEF-7ECB-4186-943B-96D956509071}" name="#"/>
+    <tableColumn id="4" xr3:uid="{2E39ABB9-8162-4A7E-9676-EE4F1454B057}" name="10 pin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE2326-A8F2-4902-84D6-3CE878BF568C}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +1080,7 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -884,18 +1091,15 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -904,18 +1108,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -924,18 +1125,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -944,18 +1142,15 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -964,18 +1159,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -984,16 +1176,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,15 +1210,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1038,18 +1227,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1058,16 +1244,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,15 +1261,15 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1095,18 +1278,15 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1115,18 +1295,15 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1135,18 +1312,15 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1155,18 +1329,15 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1175,13 +1346,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,10 +1363,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1212,10 +1380,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,15 +1397,15 @@
         <v>20</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1246,15 +1414,15 @@
         <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1263,15 +1431,15 @@
         <v>22</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1280,15 +1448,15 @@
         <v>23</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1297,15 +1465,15 @@
         <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1314,18 +1482,15 @@
         <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
@@ -1334,19 +1499,17 @@
         <v>26</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1355,18 +1518,15 @@
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1375,18 +1535,15 @@
         <v>28</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1395,13 +1552,10 @@
         <v>29</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,15 +1586,15 @@
         <v>19</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>52</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1449,19 +1603,16 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1470,19 +1621,16 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1491,18 +1639,15 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1511,19 +1656,16 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1532,19 +1674,16 @@
         <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1553,18 +1692,15 @@
         <v>35</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1573,18 +1709,15 @@
         <v>36</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1593,18 +1726,15 @@
         <v>37</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1613,13 +1743,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,10 +1760,10 @@
         <v>19</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,15 +1777,15 @@
         <v>18</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1667,13 +1794,10 @@
         <v>39</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,18 +1811,15 @@
         <v>40</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1707,18 +1828,15 @@
         <v>41</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
         <v>51</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -1727,13 +1845,10 @@
         <v>42</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1748,130 +1863,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4989104C-F973-4494-A978-26D36FD0E30E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04951159-D588-48D0-A89E-CAF85FD35488}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>102</v>
       </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883589A-A2E4-4AAB-8980-C0F5884D3479}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
+        <v>164</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/pinallocation.xlsx
+++ b/pinallocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://okanagan365-my.sharepoint.com/personal/eddy_kneller_myokanagan_bc_ca/Documents/winter 2022/elen 227/227 project/EnviroMon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD538B3-83A1-46F5-BD08-603667134C1E}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA82984-8EC5-4AA1-AC79-A39BDD5058B0}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="473" activeTab="1" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="473" activeTab="3" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4989104C-F973-4494-A978-26D36FD0E30E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1908,7 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883589A-A2E4-4AAB-8980-C0F5884D3479}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pinallocation.xlsx
+++ b/pinallocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://okanagan365-my.sharepoint.com/personal/eddy_kneller_myokanagan_bc_ca/Documents/winter 2022/elen 227/227 project/EnviroMon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="698" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA82984-8EC5-4AA1-AC79-A39BDD5058B0}"/>
+  <xr:revisionPtr revIDLastSave="743" documentId="8_{A530902C-1378-4987-A618-AF7BBE132A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDDBE9EC-6FFA-4806-B5E0-BD92502C4BDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="473" activeTab="3" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="473" activeTab="3" xr2:uid="{06FA4969-0C02-4F6F-A4D4-B9E60B184F21}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>description</t>
   </si>
@@ -513,9 +513,6 @@
     <t>miso</t>
   </si>
   <si>
-    <t>5v</t>
-  </si>
-  <si>
     <t>gnd</t>
   </si>
   <si>
@@ -534,13 +531,37 @@
     <t>dio5</t>
   </si>
   <si>
-    <t>busses ()</t>
-  </si>
-  <si>
-    <t>10 pin</t>
-  </si>
-  <si>
     <t>vrf</t>
+  </si>
+  <si>
+    <t>pin 14</t>
+  </si>
+  <si>
+    <t>pin 15</t>
+  </si>
+  <si>
+    <t>pin 23</t>
+  </si>
+  <si>
+    <t>pin 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin 26 </t>
+  </si>
+  <si>
+    <t>pin 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnd </t>
+  </si>
+  <si>
+    <t>mcu pins (10)</t>
+  </si>
+  <si>
+    <t>spi bus (9)</t>
+  </si>
+  <si>
+    <t>i2c bus (7)</t>
   </si>
 </sst>
 </file>
@@ -690,13 +711,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -720,10 +756,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <autoFilter ref="A1:E45" xr:uid="{43CC0652-AEC4-45C7-9B1E-16B1BE355B1D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{770D99BA-FAF0-4803-85D9-E16661148034}" name="selected" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{770D99BA-FAF0-4803-85D9-E16661148034}" name="selected" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BE53D948-D6E8-4530-969E-173F99AA91F0}" name="#"/>
     <tableColumn id="3" xr3:uid="{09954C72-76C3-4754-B384-4BDAA5F9EC3D}" name="description"/>
-    <tableColumn id="4" xr3:uid="{B5676F62-CECE-411A-8E95-E6269A080405}" name="side" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B5676F62-CECE-411A-8E95-E6269A080405}" name="side" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{DF6F6057-9A69-41C4-AE0F-BFF925E47DB3}" name="schematic group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -755,13 +791,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59A2789-9061-4F93-B9AE-D0B831CC074E}" name="Table4" displayName="Table4" ref="A1:D18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59A2789-9061-4F93-B9AE-D0B831CC074E}" name="Table4" displayName="Table4" ref="A1:D18" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:D18" xr:uid="{C59A2789-9061-4F93-B9AE-D0B831CC074E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BA853930-CAA1-4C3C-B8E5-9FE94DEA2241}" name="rfm95 extra (5)"/>
-    <tableColumn id="2" xr3:uid="{348DD3D3-92AF-4B96-AA07-ABE8D4A07CEF}" name="busses ()"/>
-    <tableColumn id="3" xr3:uid="{5EA94DEF-7ECB-4186-943B-96D956509071}" name="#"/>
-    <tableColumn id="4" xr3:uid="{2E39ABB9-8162-4A7E-9676-EE4F1454B057}" name="10 pin"/>
+    <tableColumn id="1" xr3:uid="{BA853930-CAA1-4C3C-B8E5-9FE94DEA2241}" name="rfm95 extra (5)" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{348DD3D3-92AF-4B96-AA07-ABE8D4A07CEF}" name="spi bus (9)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5EA94DEF-7ECB-4186-943B-96D956509071}" name="i2c bus (7)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2E39ABB9-8162-4A7E-9676-EE4F1454B057}" name="mcu pins (10)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1977,7 +2013,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,7 +2069,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>117</v>
@@ -2232,18 +2268,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883589A-A2E4-4AAB-8980-C0F5884D3479}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,149 +2287,178 @@
         <v>138</v>
       </c>
       <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="16">
-        <v>6</v>
+      <c r="C7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="16">
-        <v>8</v>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="16">
-        <v>9</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="16">
-        <v>10</v>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="16">
-        <v>11</v>
-      </c>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="16">
-        <v>12</v>
-      </c>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="16">
-        <v>13</v>
-      </c>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="16">
-        <v>14</v>
-      </c>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="16">
-        <v>15</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
